--- a/перечень ПКИ.xlsx
+++ b/перечень ПКИ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -182,34 +182,34 @@
     <t>https://www.chipdip.ru/product/yt-s13</t>
   </si>
   <si>
+    <t>https://www.chipdip.ru/product/irlml2246trpbf</t>
+  </si>
+  <si>
+    <t>вилка pld6</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/pld-6</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/pls-4r</t>
+  </si>
+  <si>
+    <t>вилка pls4-r</t>
+  </si>
+  <si>
+    <t>розетка pbs4</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/pbs-4</t>
+  </si>
+  <si>
+    <t>итого</t>
+  </si>
+  <si>
+    <t>% от общей стоимости</t>
+  </si>
+  <si>
     <t>Транзистор полевой P-канал</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/irlml2246trpbf</t>
-  </si>
-  <si>
-    <t>вилка pld6</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/pld-6</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/pls-4r</t>
-  </si>
-  <si>
-    <t>вилка pls4-r</t>
-  </si>
-  <si>
-    <t>розетка pbs4</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/pbs-4</t>
-  </si>
-  <si>
-    <t>итого</t>
-  </si>
-  <si>
-    <t>% от общей стоимости</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="12">
@@ -1402,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="12">
@@ -1435,7 +1435,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="12">
@@ -1468,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="12">
@@ -1499,7 +1499,7 @@
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F28" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="10">
         <f>SUM(G2:G26)</f>
